--- a/document/电压、电流校准.xlsx
+++ b/document/电压、电流校准.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420" firstSheet="5" activeTab="8"/>
+    <workbookView windowWidth="22368" windowHeight="9420" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="电压" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="57">
   <si>
     <t>ADC采样值</t>
   </si>
@@ -169,6 +169,18 @@
     <t>电压7</t>
   </si>
   <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>p1</t>
+  </si>
+  <si>
+    <t>q1</t>
+  </si>
+  <si>
     <t>V0</t>
   </si>
   <si>
@@ -177,18 +189,25 @@
   <si>
     <t>V2</t>
   </si>
+  <si>
+    <t>相关系数</t>
+  </si>
+  <si>
+    <t>误差</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.000_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.000000_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -985,7 +1004,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -999,6 +1018,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -16256,6 +16281,1387 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr defTabSz="914400">
+              <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr altLang="en-US"/>
+              <a:t>电压</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>0</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.497222222222222"/>
+          <c:y val="0.0278481012658228"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0942662779397473"/>
+                  <c:y val="0.00207134637514384"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DC_电压!$A$153:$A$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>2856.866699</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2113.71</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DC_电压!$C$153:$C$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="958977683"/>
+        <c:axId val="76925859"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="958977683"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="76925859"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="76925859"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="958977683"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DC_电压!$D$152</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>电压1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.153204890700259"/>
+                  <c:y val="-0.0757273814268633"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DC_电压!$B$153:$B$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3042.010986</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2115.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DC_电压!$D$153:$D$154</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="375125483"/>
+        <c:axId val="935212203"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="375125483"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="935212203"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="935212203"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="375125483"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DC_电压!$C$152</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>电压0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DC_电压!$A$155:$A$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3057.437744</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2101.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DC_电压!$C$155:$C$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="70968079"/>
+        <c:axId val="972642892"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="70968079"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="972642892"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="972642892"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="70968079"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="marker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DC_电压!$D$152</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>电压1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DC_电压!$B$155:$B$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>3128.932617</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2101.14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DC_电压!$D$155:$D$156</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="339220229"/>
+        <c:axId val="947550387"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="339220229"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="947550387"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="947550387"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="zh-CN" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="339220229"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="zh-CN"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -16609,7 +18015,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -16983,7 +18389,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -20899,6 +22305,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors44.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors45.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors46.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors47.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -40202,6 +41768,2070 @@
 </file>
 
 <file path=xl/charts/style43.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style44.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style45.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style46.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style47.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -44080,7 +47710,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6586220" y="52070"/>
+        <a:off x="7626350" y="52070"/>
         <a:ext cx="4767580" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -44110,7 +47740,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5534660" y="1018540"/>
+        <a:off x="6574790" y="1018540"/>
         <a:ext cx="4574540" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -44140,8 +47770,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5476875" y="4140835"/>
-        <a:ext cx="4577080" cy="2743200"/>
+        <a:off x="6242685" y="4140835"/>
+        <a:ext cx="4851400" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -44170,8 +47800,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="5133975" y="7163435"/>
-        <a:ext cx="4293235" cy="3170555"/>
+        <a:off x="5899785" y="7163435"/>
+        <a:ext cx="4567555" cy="3170555"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -44200,7 +47830,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8891905" y="7179945"/>
+        <a:off x="9932035" y="7179945"/>
         <a:ext cx="4090670" cy="3156585"/>
       </xdr:xfrm>
       <a:graphic>
@@ -44230,8 +47860,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4982845" y="10569575"/>
-        <a:ext cx="4689475" cy="3228340"/>
+        <a:off x="5748655" y="10569575"/>
+        <a:ext cx="4963795" cy="3228340"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -44260,7 +47890,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8972550" y="10629265"/>
+        <a:off x="10012680" y="10629265"/>
         <a:ext cx="4417060" cy="3066415"/>
       </xdr:xfrm>
       <a:graphic>
@@ -44290,8 +47920,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4966335" y="14123035"/>
-        <a:ext cx="4574540" cy="2743200"/>
+        <a:off x="5732145" y="14123035"/>
+        <a:ext cx="4848860" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -44320,7 +47950,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9123680" y="14097635"/>
+        <a:off x="10163810" y="14097635"/>
         <a:ext cx="4574540" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -44350,8 +47980,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4987925" y="17620615"/>
-        <a:ext cx="4574540" cy="2743200"/>
+        <a:off x="5753735" y="17620615"/>
+        <a:ext cx="4848860" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -44380,7 +48010,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="8382635" y="17657445"/>
+        <a:off x="9422765" y="17657445"/>
         <a:ext cx="4574540" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -44410,8 +48040,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="4925695" y="21065490"/>
-        <a:ext cx="4574540" cy="2743200"/>
+        <a:off x="5691505" y="21065490"/>
+        <a:ext cx="4848860" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -44440,7 +48070,7 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="9565640" y="21055965"/>
+        <a:off x="10605770" y="21055965"/>
         <a:ext cx="4574540" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
@@ -44453,16 +48083,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>420370</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
       <xdr:row>134</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
+      <xdr:rowOff>175895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>267970</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>149</xdr:row>
-      <xdr:rowOff>97155</xdr:rowOff>
+      <xdr:rowOff>175895</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -44470,8 +48100,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3808730" y="24603075"/>
-        <a:ext cx="4574540" cy="2743200"/>
+        <a:off x="7036435" y="24681815"/>
+        <a:ext cx="5614670" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -44500,12 +48130,132 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="7192645" y="24598630"/>
+        <a:off x="8232775" y="24598630"/>
         <a:ext cx="4574540" cy="2743200"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>412115</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>436245</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="15" name="图表 14"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10786745" y="27555825"/>
+        <a:ext cx="4291330" cy="1200150"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>156210</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>42545</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>147955</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="图表 16"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9921240" y="27906980"/>
+        <a:ext cx="2934335" cy="1136015"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>271145</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>226060</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>181610</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="19" name="图表 18"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="10645775" y="29028390"/>
+        <a:ext cx="2393315" cy="1145540"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>229870</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>43180</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>286385</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="20" name="图表 19"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="9994900" y="28206700"/>
+        <a:ext cx="3104515" cy="1085850"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -45429,7 +49179,7 @@
       <c r="K6">
         <v>3462.55</v>
       </c>
-      <c r="L6" s="27">
+      <c r="L6" s="29">
         <v>0.59</v>
       </c>
     </row>
@@ -45794,18 +49544,18 @@
   <sheetData>
     <row r="1" ht="15.15"/>
     <row r="2" spans="2:10">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16" t="s">
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="17"/>
+      <c r="G2" s="19"/>
       <c r="I2" t="s">
         <v>4</v>
       </c>
@@ -45814,36 +49564,36 @@
       </c>
     </row>
     <row r="3" spans="2:19">
-      <c r="B3" s="18">
+      <c r="B3" s="20">
         <v>145.4</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19">
+      <c r="C3" s="21"/>
+      <c r="D3" s="21">
         <v>-1.383</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="21"/>
+      <c r="F3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="20"/>
+      <c r="G3" s="22"/>
       <c r="S3">
         <f>(B4-B3)/(D4-D3)</f>
         <v>1082.93609671848</v>
       </c>
     </row>
     <row r="4" spans="2:19">
-      <c r="B4" s="21">
+      <c r="B4" s="23">
         <v>772.42</v>
       </c>
-      <c r="C4" s="19"/>
-      <c r="D4" s="22">
+      <c r="C4" s="21"/>
+      <c r="D4" s="24">
         <v>-0.804</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="20"/>
+      <c r="G4" s="22"/>
       <c r="I4">
         <f>(D4-D3)/(B4-B3)</f>
         <v>0.000923415521036012</v>
@@ -45858,18 +49608,18 @@
       </c>
     </row>
     <row r="5" spans="2:19">
-      <c r="B5" s="18">
+      <c r="B5" s="20">
         <v>1511.22</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19">
+      <c r="C5" s="21"/>
+      <c r="D5" s="21">
         <v>-0.342</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19" t="s">
+      <c r="E5" s="21"/>
+      <c r="F5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G5" s="20"/>
+      <c r="G5" s="22"/>
       <c r="I5">
         <f t="shared" ref="I5:I11" si="1">(D5-D4)/(B5-B4)</f>
         <v>0.000625338386572821</v>
@@ -45884,18 +49634,18 @@
       </c>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="21">
+      <c r="B6" s="23">
         <v>2125.13</v>
       </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19">
+      <c r="C6" s="21"/>
+      <c r="D6" s="21">
         <v>0</v>
       </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G6" s="20"/>
+      <c r="G6" s="22"/>
       <c r="I6">
         <f t="shared" si="1"/>
         <v>0.000557084914726914</v>
@@ -45910,18 +49660,18 @@
       </c>
     </row>
     <row r="7" spans="2:19">
-      <c r="B7" s="18">
+      <c r="B7" s="20">
         <v>2070.3</v>
       </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="19">
+      <c r="C7" s="21"/>
+      <c r="D7" s="21">
         <v>0</v>
       </c>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19" t="s">
+      <c r="E7" s="21"/>
+      <c r="F7" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G7" s="20"/>
+      <c r="G7" s="22"/>
       <c r="I7">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -45936,18 +49686,18 @@
       </c>
     </row>
     <row r="8" spans="2:19">
-      <c r="B8" s="21">
+      <c r="B8" s="23">
         <v>3050.69</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19">
+      <c r="C8" s="21"/>
+      <c r="D8" s="21">
         <v>0.591</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="21"/>
+      <c r="F8" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G8" s="20"/>
+      <c r="G8" s="22"/>
       <c r="I8">
         <f t="shared" si="1"/>
         <v>0.000602821326206918</v>
@@ -45962,18 +49712,18 @@
       </c>
     </row>
     <row r="9" spans="2:19">
-      <c r="B9" s="21">
+      <c r="B9" s="23">
         <v>3392.71</v>
       </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19">
+      <c r="C9" s="21"/>
+      <c r="D9" s="21">
         <v>0.817</v>
       </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19" t="s">
+      <c r="E9" s="21"/>
+      <c r="F9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="20"/>
+      <c r="G9" s="22"/>
       <c r="I9">
         <f t="shared" si="1"/>
         <v>0.000660780071340857</v>
@@ -45988,18 +49738,18 @@
       </c>
     </row>
     <row r="10" ht="15.15" spans="2:19">
-      <c r="B10" s="23">
+      <c r="B10" s="25">
         <v>3860.29</v>
       </c>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24">
+      <c r="C10" s="26"/>
+      <c r="D10" s="26">
         <v>1.239</v>
       </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24" t="s">
+      <c r="E10" s="26"/>
+      <c r="F10" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="25"/>
+      <c r="G10" s="27"/>
       <c r="I10">
         <f t="shared" si="1"/>
         <v>0.000902519354976689</v>
@@ -46030,130 +49780,130 @@
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="15">
+      <c r="B12" s="17">
         <v>3867.16</v>
       </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16" t="s">
+      <c r="C12" s="18"/>
+      <c r="D12" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16" t="s">
+      <c r="E12" s="18"/>
+      <c r="F12" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="17"/>
+      <c r="G12" s="19"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="21">
+      <c r="B13" s="23">
         <v>3592.49</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19">
+      <c r="C13" s="21"/>
+      <c r="D13" s="21">
         <v>30.13</v>
       </c>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19" t="s">
+      <c r="E13" s="21"/>
+      <c r="F13" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="20"/>
+      <c r="G13" s="22"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="21">
+      <c r="B14" s="23">
         <v>3121.71</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="26">
+      <c r="C14" s="21"/>
+      <c r="D14" s="28">
         <v>19.7</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19" t="s">
+      <c r="E14" s="21"/>
+      <c r="F14" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="20"/>
+      <c r="G14" s="22"/>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="21">
+      <c r="B15" s="23">
         <v>2540.52</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19">
+      <c r="C15" s="21"/>
+      <c r="D15" s="21">
         <v>9.81</v>
       </c>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19" t="s">
+      <c r="E15" s="21"/>
+      <c r="F15" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="20"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="21">
+      <c r="B16" s="23">
         <v>2069.76</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19">
+      <c r="C16" s="21"/>
+      <c r="D16" s="21">
         <v>0</v>
       </c>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19" t="s">
+      <c r="E16" s="21"/>
+      <c r="F16" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G16" s="20"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="21">
+      <c r="B17" s="23">
         <v>1538.43</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="26">
+      <c r="C17" s="21"/>
+      <c r="D17" s="28">
         <v>-9.7</v>
       </c>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19" t="s">
+      <c r="E17" s="21"/>
+      <c r="F17" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="20"/>
+      <c r="G17" s="22"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="21">
+      <c r="B18" s="23">
         <v>912.71</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21">
         <v>-20.14</v>
       </c>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19" t="s">
+      <c r="E18" s="21"/>
+      <c r="F18" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="20"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="21">
+      <c r="B19" s="23">
         <v>531.48</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19">
+      <c r="C19" s="21"/>
+      <c r="D19" s="21">
         <v>-30.44</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19" t="s">
+      <c r="E19" s="21"/>
+      <c r="F19" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G19" s="20"/>
+      <c r="G19" s="22"/>
     </row>
     <row r="20" ht="15.15" spans="2:7">
-      <c r="B20" s="23">
+      <c r="B20" s="25">
         <v>80.84</v>
       </c>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24">
+      <c r="C20" s="26"/>
+      <c r="D20" s="26">
         <v>-39.28</v>
       </c>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24" t="s">
+      <c r="E20" s="26"/>
+      <c r="F20" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G20" s="25"/>
+      <c r="G20" s="27"/>
     </row>
     <row r="21" spans="2:7">
       <c r="B21" s="1"/>
@@ -46172,32 +49922,32 @@
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="15">
+      <c r="B23" s="17">
         <v>2425.47</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16">
+      <c r="C23" s="18"/>
+      <c r="D23" s="18">
         <v>25.26</v>
       </c>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16" t="s">
+      <c r="E23" s="18"/>
+      <c r="F23" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G23" s="17"/>
+      <c r="G23" s="19"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="18">
+      <c r="B24" s="20">
         <v>2315.6</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19">
+      <c r="C24" s="21"/>
+      <c r="D24" s="21">
         <v>20.04</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19" t="s">
+      <c r="E24" s="21"/>
+      <c r="F24" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G24" s="20"/>
+      <c r="G24" s="22"/>
       <c r="I24">
         <f>(D24-D23)/(B24-B23)</f>
         <v>0.0475106944570857</v>
@@ -46208,18 +49958,18 @@
       </c>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="18">
+      <c r="B25" s="20">
         <v>2221.8</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19">
+      <c r="C25" s="21"/>
+      <c r="D25" s="21">
         <v>14.37</v>
       </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19" t="s">
+      <c r="E25" s="21"/>
+      <c r="F25" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G25" s="20"/>
+      <c r="G25" s="22"/>
       <c r="I25">
         <f>(D25-D24)/(B25-B24)</f>
         <v>0.06044776119403</v>
@@ -46230,18 +49980,18 @@
       </c>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="21">
+      <c r="B26" s="23">
         <v>2158.52</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19">
+      <c r="C26" s="21"/>
+      <c r="D26" s="21">
         <v>9.93</v>
       </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19" t="s">
+      <c r="E26" s="21"/>
+      <c r="F26" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G26" s="20"/>
+      <c r="G26" s="22"/>
       <c r="I26">
         <f>(D26-D25)/(B26-B25)</f>
         <v>0.0701643489254106</v>
@@ -46252,18 +50002,18 @@
       </c>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="21">
+      <c r="B27" s="23">
         <v>2118.07</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19">
+      <c r="C27" s="21"/>
+      <c r="D27" s="21">
         <v>6.92</v>
       </c>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19" t="s">
+      <c r="E27" s="21"/>
+      <c r="F27" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="G27" s="20"/>
+      <c r="G27" s="22"/>
       <c r="I27">
         <f>(D27-D26)/(B27-B26)</f>
         <v>0.074412855377009</v>
@@ -46274,18 +50024,18 @@
       </c>
     </row>
     <row r="28" ht="15.15" spans="2:10">
-      <c r="B28" s="23">
+      <c r="B28" s="25">
         <v>2077.84</v>
       </c>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24">
+      <c r="C28" s="26"/>
+      <c r="D28" s="26">
         <v>0</v>
       </c>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24" t="s">
+      <c r="E28" s="26"/>
+      <c r="F28" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G28" s="25"/>
+      <c r="G28" s="27"/>
       <c r="I28">
         <f>(D28-D27)/(B28-B27)</f>
         <v>0.172010937111608</v>
@@ -46493,7 +50243,7 @@
         <f>C2-A2*F2</f>
         <v>-2.49246744701044</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="12">
         <f>ABS(K2-I2)/I2</f>
         <v>0.00720009236868809</v>
       </c>
@@ -46557,7 +50307,7 @@
         <f t="shared" ref="G3:G28" si="3">C3-A3*F3</f>
         <v>-1.73512103388949</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="12">
         <f t="shared" ref="H3:H28" si="4">ABS(K3-I3)/I3</f>
         <v>0.0820774689063313</v>
       </c>
@@ -46621,7 +50371,7 @@
         <f t="shared" si="3"/>
         <v>-1.30304008055406</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="12">
         <f t="shared" si="4"/>
         <v>0.125114807475529</v>
       </c>
@@ -46685,7 +50435,7 @@
         <f t="shared" si="3"/>
         <v>-1.53673756470853</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="12">
         <f t="shared" si="4"/>
         <v>0.132713310727125</v>
       </c>
@@ -46749,7 +50499,7 @@
         <f t="shared" si="3"/>
         <v>-1.16139426229508</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="12">
         <f t="shared" si="4"/>
         <v>0.158964843889004</v>
       </c>
@@ -46813,7 +50563,7 @@
         <f t="shared" si="3"/>
         <v>-1.29608566835093</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="12">
         <f t="shared" si="4"/>
         <v>0.156095416232806</v>
       </c>
@@ -46877,7 +50627,7 @@
         <f t="shared" si="3"/>
         <v>-1.03740648115534</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="12">
         <f t="shared" si="4"/>
         <v>0.163808610796482</v>
       </c>
@@ -46941,7 +50691,7 @@
         <f t="shared" si="3"/>
         <v>-1.38992739766955</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="12">
         <f t="shared" si="4"/>
         <v>0.150839179508587</v>
       </c>
@@ -47005,7 +50755,7 @@
         <f t="shared" si="3"/>
         <v>-1.31651062155784</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="12">
         <f t="shared" si="4"/>
         <v>0.174269604591405</v>
       </c>
@@ -47069,7 +50819,7 @@
         <f t="shared" si="3"/>
         <v>-1.30421506429883</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="12">
         <f t="shared" si="4"/>
         <v>0.190467569762051</v>
       </c>
@@ -47133,7 +50883,7 @@
         <f t="shared" si="3"/>
         <v>-1.24874205419872</v>
       </c>
-      <c r="H12" s="10">
+      <c r="H12" s="12">
         <f t="shared" si="4"/>
         <v>0.212973854043955</v>
       </c>
@@ -47197,7 +50947,7 @@
         <f t="shared" si="3"/>
         <v>-1.1703106140536</v>
       </c>
-      <c r="H13" s="10">
+      <c r="H13" s="12">
         <f t="shared" si="4"/>
         <v>0.228522973981388</v>
       </c>
@@ -47261,7 +51011,7 @@
         <f t="shared" si="3"/>
         <v>-2.1810298953662</v>
       </c>
-      <c r="H14" s="10">
+      <c r="H14" s="12">
         <f t="shared" si="4"/>
         <v>0.234627636417894</v>
       </c>
@@ -47325,7 +51075,7 @@
         <f t="shared" si="3"/>
         <v>-1.00481471597408</v>
       </c>
-      <c r="H15" s="10">
+      <c r="H15" s="12">
         <f t="shared" si="4"/>
         <v>0.304486461073616</v>
       </c>
@@ -47389,7 +51139,7 @@
         <f t="shared" si="3"/>
         <v>-0.43171630042637</v>
       </c>
-      <c r="H16" s="10">
+      <c r="H16" s="12">
         <f t="shared" si="4"/>
         <v>0.292512597294819</v>
       </c>
@@ -47453,7 +51203,7 @@
         <f t="shared" si="3"/>
         <v>-1.4815635084314</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="12">
         <f t="shared" si="4"/>
         <v>0.107016765466305</v>
       </c>
@@ -47514,7 +51264,7 @@
         <f t="shared" si="3"/>
         <v>-1.21138005257154</v>
       </c>
-      <c r="H18" s="10"/>
+      <c r="H18" s="12"/>
       <c r="I18" s="1">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -47575,7 +51325,7 @@
         <f t="shared" si="3"/>
         <v>-2.41507786885245</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="12">
         <f t="shared" si="4"/>
         <v>-0.00472795158108468</v>
       </c>
@@ -47639,7 +51389,7 @@
         <f t="shared" si="3"/>
         <v>-0.968594020547155</v>
       </c>
-      <c r="H20" s="10">
+      <c r="H20" s="12">
         <f t="shared" si="4"/>
         <v>-0.0548868521800077</v>
       </c>
@@ -47703,7 +51453,7 @@
         <f t="shared" si="3"/>
         <v>-1.35690625</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="12">
         <f t="shared" si="4"/>
         <v>-0.0717339580818605</v>
       </c>
@@ -47767,7 +51517,7 @@
         <f t="shared" si="3"/>
         <v>-1.47789273356402</v>
       </c>
-      <c r="H22" s="10">
+      <c r="H22" s="12">
         <f t="shared" si="4"/>
         <v>-0.0565691823809257</v>
       </c>
@@ -47831,7 +51581,7 @@
         <f t="shared" si="3"/>
         <v>-1.12495121028744</v>
       </c>
-      <c r="H23" s="10">
+      <c r="H23" s="12">
         <f t="shared" si="4"/>
         <v>-0.032971694964281</v>
       </c>
@@ -47895,7 +51645,7 @@
         <f t="shared" si="3"/>
         <v>-1.31124183006536</v>
       </c>
-      <c r="H24" s="10">
+      <c r="H24" s="12">
         <f t="shared" si="4"/>
         <v>-0.10056970589197</v>
       </c>
@@ -47959,7 +51709,7 @@
         <f t="shared" si="3"/>
         <v>-1.27324785700557</v>
       </c>
-      <c r="H25" s="10">
+      <c r="H25" s="12">
         <f t="shared" si="4"/>
         <v>-0.0831493845931203</v>
       </c>
@@ -48023,7 +51773,7 @@
         <f t="shared" si="3"/>
         <v>-1.29842036183044</v>
       </c>
-      <c r="H26" s="10">
+      <c r="H26" s="12">
         <f t="shared" si="4"/>
         <v>-0.0840766867145949</v>
       </c>
@@ -48087,7 +51837,7 @@
         <f t="shared" si="3"/>
         <v>-1.23344026668268</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="12">
         <f t="shared" si="4"/>
         <v>-0.0775611177782471</v>
       </c>
@@ -48151,7 +51901,7 @@
         <f t="shared" si="3"/>
         <v>-1.553166496772</v>
       </c>
-      <c r="H28" s="10">
+      <c r="H28" s="12">
         <f t="shared" si="4"/>
         <v>-0.100714733035929</v>
       </c>
@@ -48237,7 +51987,7 @@
     </row>
     <row r="30" ht="15.15" spans="6:19">
       <c r="F30" s="1"/>
-      <c r="H30" s="11">
+      <c r="H30" s="13">
         <f>AVERAGE(H2:H29)</f>
         <v>0.0790280740513064</v>
       </c>
@@ -48247,29 +51997,29 @@
       <c r="S30" s="1"/>
     </row>
     <row r="31" ht="15.15" spans="6:7">
-      <c r="F31" s="12">
+      <c r="F31" s="14">
         <f>AVERAGE(F2:F30)</f>
         <v>0.000676880897264471</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="15">
         <f>AVERAGE(G2:G30)</f>
         <v>-1.38205191326367</v>
       </c>
     </row>
     <row r="33" spans="9:10">
-      <c r="I33" s="14" t="s">
+      <c r="I33" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="J33" s="14">
+      <c r="J33" s="16">
         <f>LINEST(C2:C29,E2:E29,,FALSE)</f>
         <v>0.836287921134597</v>
       </c>
     </row>
     <row r="34" spans="9:10">
-      <c r="I34" s="14" t="s">
+      <c r="I34" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="J34" s="14">
+      <c r="J34" s="16">
         <f>INDEX(LINEST(C2:C29,E2:E29,,FALSE),2)</f>
         <v>-6.24121704576817</v>
       </c>
@@ -49040,7 +52790,7 @@
         <f t="shared" ref="D2:D12" si="0">B2/C2</f>
         <v>0.0392253811289658</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="12">
         <f>ABS(J2-I2)/I2</f>
         <v>0.0149274000824064</v>
       </c>
@@ -49052,7 +52802,7 @@
         <f>C2-A2*F2</f>
         <v>-91.8308286415476</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="12">
         <f>ABS(C2-K2)/C2</f>
         <v>0.112515521910581</v>
       </c>
@@ -49089,7 +52839,7 @@
         <f t="shared" si="0"/>
         <v>0.0401627573001436</v>
       </c>
-      <c r="E3" s="10">
+      <c r="E3" s="12">
         <f t="shared" ref="E3:E12" si="1">ABS(J3-I3)/I3</f>
         <v>0.0118556247008138</v>
       </c>
@@ -49101,7 +52851,7 @@
         <f t="shared" ref="G3:G11" si="3">C3-A3*F3</f>
         <v>-182.565604959382</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="12">
         <f t="shared" ref="H3:H13" si="4">ABS(C3-K3)/C3</f>
         <v>0.0604214841782049</v>
       </c>
@@ -49138,7 +52888,7 @@
         <f t="shared" si="0"/>
         <v>0.0405735528412108</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="12">
         <f t="shared" si="1"/>
         <v>0.024698459904408</v>
       </c>
@@ -49150,7 +52900,7 @@
         <f t="shared" si="3"/>
         <v>-72.5146422338573</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="12">
         <f t="shared" si="4"/>
         <v>0.0894861407098833</v>
       </c>
@@ -49187,7 +52937,7 @@
         <f t="shared" si="0"/>
         <v>0.0409660107334526</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="12">
         <f t="shared" si="1"/>
         <v>0.02655694692904</v>
       </c>
@@ -49199,7 +52949,7 @@
         <f t="shared" si="3"/>
         <v>-180.404848484849</v>
       </c>
-      <c r="H5" s="10">
+      <c r="H5" s="12">
         <f t="shared" si="4"/>
         <v>0.00807316014590339</v>
       </c>
@@ -49236,7 +52986,7 @@
         <f t="shared" si="0"/>
         <v>0.0410737386804657</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="12">
         <f t="shared" si="1"/>
         <v>0.000600258732212071</v>
       </c>
@@ -49248,7 +52998,7 @@
         <f t="shared" si="3"/>
         <v>-95.314186550975</v>
       </c>
-      <c r="H6" s="10">
+      <c r="H6" s="12">
         <f t="shared" si="4"/>
         <v>0.0262588997456467</v>
       </c>
@@ -49285,7 +53035,7 @@
         <f t="shared" si="0"/>
         <v>0.0411931818181818</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="12">
         <f t="shared" si="1"/>
         <v>0.0144840909090909</v>
       </c>
@@ -49297,7 +53047,7 @@
         <f t="shared" si="3"/>
         <v>-125.740521739132</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="12">
         <f t="shared" si="4"/>
         <v>0.0106602570679048</v>
       </c>
@@ -49334,7 +53084,7 @@
         <f t="shared" si="0"/>
         <v>0.0413223140495868</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="12">
         <f t="shared" si="1"/>
         <v>0.00102611570247934</v>
       </c>
@@ -49346,7 +53096,7 @@
         <f t="shared" si="3"/>
         <v>-228.435407020158</v>
       </c>
-      <c r="H8" s="10">
+      <c r="H8" s="12">
         <f t="shared" si="4"/>
         <v>0.0283833181292065</v>
       </c>
@@ -49383,7 +53133,7 @@
         <f t="shared" si="0"/>
         <v>0.041564561734213</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="12">
         <f t="shared" si="1"/>
         <v>0.0665711592836946</v>
       </c>
@@ -49395,7 +53145,7 @@
         <f t="shared" si="3"/>
         <v>-119.947075748679</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="12">
         <f t="shared" si="4"/>
         <v>0.0197295101835061</v>
       </c>
@@ -49432,7 +53182,7 @@
         <f t="shared" si="0"/>
         <v>0.0414519906323185</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="12">
         <f t="shared" si="1"/>
         <v>0.0953704918032787</v>
       </c>
@@ -49444,7 +53194,7 @@
         <f t="shared" si="3"/>
         <v>-211.943535502959</v>
       </c>
-      <c r="H10" s="10">
+      <c r="H10" s="12">
         <f t="shared" si="4"/>
         <v>0.0122595180357598</v>
       </c>
@@ -49481,7 +53231,7 @@
         <f t="shared" si="0"/>
         <v>0.0415147265077139</v>
       </c>
-      <c r="E11" s="10"/>
+      <c r="E11" s="12"/>
       <c r="F11" s="1">
         <f t="shared" si="2"/>
         <v>0.652173913043534</v>
@@ -49490,7 +53240,7 @@
         <f t="shared" si="3"/>
         <v>-1362.83956521751</v>
       </c>
-      <c r="H11" s="10">
+      <c r="H11" s="12">
         <f t="shared" si="4"/>
         <v>0.0503467925708051</v>
       </c>
@@ -49527,10 +53277,10 @@
         <f t="shared" si="0"/>
         <v>0.0414634146341463</v>
       </c>
-      <c r="E12" s="10"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="10"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="1"/>
@@ -49540,7 +53290,7 @@
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="10">
+      <c r="H13" s="12">
         <f>AVERAGE(H2:H12)</f>
         <v>0.0418134602677402</v>
       </c>
@@ -49550,7 +53300,7 @@
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="10">
+      <c r="E14" s="12">
         <f>AVERAGE(E2:E13)</f>
         <v>0.0284545053386027</v>
       </c>
@@ -49977,7 +53727,7 @@
         <f>0.1611*A2-310.7</f>
         <v>96.957106</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="12">
         <f>ABS(D2-H2)/D2</f>
         <v>0.02405054921842</v>
       </c>
@@ -49985,7 +53735,7 @@
         <f>0.1681*B2-323.74</f>
         <v>98.663361</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="12">
         <f>ABS(D2-J2)/D2</f>
         <v>0.0420718314321921</v>
       </c>
@@ -50016,7 +53766,7 @@
         <f t="shared" ref="H3:H9" si="1">0.1611*A3-310.7</f>
         <v>84.3155889999999</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="12">
         <f t="shared" ref="I3:I9" si="2">ABS(D3-H3)/D3</f>
         <v>0.0223145987940638</v>
       </c>
@@ -50024,7 +53774,7 @@
         <f t="shared" ref="J3:J9" si="3">0.1681*B3-323.74</f>
         <v>79.390696</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="12">
         <f t="shared" ref="K3:K9" si="4">ABS(D3-J3)/D3</f>
         <v>0.0794214285714286</v>
       </c>
@@ -50053,7 +53803,7 @@
         <f t="shared" si="1"/>
         <v>74.623813</v>
       </c>
-      <c r="I4" s="10">
+      <c r="I4" s="12">
         <f t="shared" si="2"/>
         <v>0.0283357682291668</v>
       </c>
@@ -50061,7 +53811,7 @@
         <f t="shared" si="3"/>
         <v>75.494138</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="12">
         <f t="shared" si="4"/>
         <v>0.017003411458333</v>
       </c>
@@ -50090,7 +53840,7 @@
         <f t="shared" si="1"/>
         <v>64.40524</v>
       </c>
-      <c r="I5" s="10">
+      <c r="I5" s="12">
         <f t="shared" si="2"/>
         <v>0.0687501445922499</v>
       </c>
@@ -50098,7 +53848,7 @@
         <f t="shared" si="3"/>
         <v>68.427214</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="12">
         <f t="shared" si="4"/>
         <v>0.0105955176402545</v>
       </c>
@@ -50127,7 +53877,7 @@
         <f t="shared" si="1"/>
         <v>61.829251</v>
       </c>
-      <c r="I6" s="10">
+      <c r="I6" s="12">
         <f t="shared" si="2"/>
         <v>0.0142593667979002</v>
       </c>
@@ -50135,7 +53885,7 @@
         <f t="shared" si="3"/>
         <v>63.148874</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="12">
         <f t="shared" si="4"/>
         <v>0.0359067257217844</v>
       </c>
@@ -50164,7 +53914,7 @@
         <f t="shared" si="1"/>
         <v>58.119118</v>
       </c>
-      <c r="I7" s="10">
+      <c r="I7" s="12">
         <f t="shared" si="2"/>
         <v>0.121990694980695</v>
       </c>
@@ -50172,7 +53922,7 @@
         <f t="shared" si="3"/>
         <v>54.175696</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="12">
         <f t="shared" si="4"/>
         <v>0.0458628571428564</v>
       </c>
@@ -50201,7 +53951,7 @@
         <f t="shared" si="1"/>
         <v>45.049075</v>
       </c>
-      <c r="I8" s="10">
+      <c r="I8" s="12">
         <f t="shared" si="2"/>
         <v>0.0100689461883411</v>
       </c>
@@ -50209,7 +53959,7 @@
         <f t="shared" si="3"/>
         <v>44.706623</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="12">
         <f t="shared" si="4"/>
         <v>0.00239065022421475</v>
       </c>
@@ -50238,7 +53988,7 @@
         <f t="shared" si="1"/>
         <v>38.018671</v>
       </c>
-      <c r="I9" s="10">
+      <c r="I9" s="12">
         <f t="shared" si="2"/>
         <v>0.0350591116751269</v>
       </c>
@@ -50246,7 +53996,7 @@
         <f t="shared" si="3"/>
         <v>38.947517</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="12">
         <f t="shared" si="4"/>
         <v>0.0114843401015227</v>
       </c>
@@ -50261,7 +54011,7 @@
       <c r="G10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
-      <c r="K10" s="10"/>
+      <c r="K10" s="12"/>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1"/>
@@ -50271,11 +54021,11 @@
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="I11" s="10">
+      <c r="I11" s="12">
         <f>AVERAGE(I2:I10)</f>
         <v>0.0406036475594955</v>
       </c>
-      <c r="K11" s="11">
+      <c r="K11" s="13">
         <f>AVERAGE(K2:K10)</f>
         <v>0.0305920952865733</v>
       </c>
@@ -50851,21 +54601,21 @@
         <v>-111.32057137478</v>
       </c>
     </row>
-    <row r="7" s="6" customFormat="1" spans="1:14">
-      <c r="A7" s="7">
+    <row r="7" s="8" customFormat="1" spans="1:14">
+      <c r="A7" s="9">
         <v>2181.58</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="10">
         <v>0.58</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="9">
         <v>14.08</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="9">
         <f t="shared" si="0"/>
         <v>0.0411931818181818</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="9"/>
       <c r="F7" s="1">
         <f t="shared" si="1"/>
         <v>0.0692549842602305</v>
@@ -50874,7 +54624,7 @@
         <f t="shared" si="2"/>
         <v>-137.005288562434</v>
       </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="9"/>
       <c r="I7">
         <f t="shared" si="3"/>
         <v>14.08</v>
@@ -51118,7 +54868,7 @@
       </c>
     </row>
     <row r="27" spans="1:11">
-      <c r="A27" s="9">
+      <c r="A27" s="11">
         <v>2281.1</v>
       </c>
       <c r="B27">
@@ -51144,7 +54894,7 @@
       </c>
     </row>
     <row r="28" spans="1:11">
-      <c r="A28" s="9">
+      <c r="A28" s="11">
         <v>2285.5</v>
       </c>
       <c r="B28">
@@ -51400,10 +55150,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H69"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F9"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -51978,7 +55728,7 @@
       <c r="A29" s="2">
         <v>2104.47</v>
       </c>
-      <c r="B29" s="5">
+      <c r="B29" s="7">
         <v>2096.08</v>
       </c>
       <c r="C29" s="2">
@@ -52713,6 +56463,354 @@
       <c r="F69" s="1">
         <v>1.69</v>
       </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G82" t="s">
+        <v>50</v>
+      </c>
+      <c r="H82" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1">
+        <v>2264.473389</v>
+      </c>
+      <c r="B83" s="1">
+        <v>2288.583984</v>
+      </c>
+      <c r="C83" s="1">
+        <v>31</v>
+      </c>
+      <c r="D83" s="1">
+        <v>31</v>
+      </c>
+      <c r="E83" s="1">
+        <f t="shared" ref="E83:E87" si="0">(C83-C84)/(A83-A84)</f>
+        <v>0.143204668911983</v>
+      </c>
+      <c r="F83" s="1">
+        <f t="shared" ref="F83:F87" si="1">C83-A83*E83</f>
+        <v>-293.283161931742</v>
+      </c>
+      <c r="G83">
+        <f t="shared" ref="G83:G87" si="2">(D83-D84)/(B83-B84)</f>
+        <v>0.128853132634133</v>
+      </c>
+      <c r="H83">
+        <f t="shared" ref="H83:H87" si="3">D83-G83*B83</f>
+        <v>-263.891215634703</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B84" s="1">
+        <v>2048</v>
+      </c>
+      <c r="C84" s="1">
+        <v>0</v>
+      </c>
+      <c r="D84" s="1">
+        <v>0</v>
+      </c>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1">
+        <v>2292.748779</v>
+      </c>
+      <c r="B85" s="1">
+        <v>2313.538086</v>
+      </c>
+      <c r="C85" s="1">
+        <v>31</v>
+      </c>
+      <c r="D85" s="1">
+        <v>31</v>
+      </c>
+      <c r="E85" s="1">
+        <f t="shared" si="0"/>
+        <v>0.126660488876228</v>
+      </c>
+      <c r="F85" s="1">
+        <f t="shared" si="1"/>
+        <v>-259.400681218516</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="2"/>
+        <v>0.116744081675726</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="3"/>
+        <v>-239.091879271887</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B86" s="1">
+        <v>2048</v>
+      </c>
+      <c r="C86" s="1">
+        <v>0</v>
+      </c>
+      <c r="D86" s="1">
+        <v>0</v>
+      </c>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1">
+        <v>2304.465332</v>
+      </c>
+      <c r="B87" s="1">
+        <v>2299.567383</v>
+      </c>
+      <c r="C87" s="1">
+        <v>31</v>
+      </c>
+      <c r="D87" s="1">
+        <v>31</v>
+      </c>
+      <c r="E87" s="1">
+        <f t="shared" si="0"/>
+        <v>0.120874036885422</v>
+      </c>
+      <c r="F87" s="1">
+        <f t="shared" si="1"/>
+        <v>-247.550027541344</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="2"/>
+        <v>0.123227421736148</v>
+      </c>
+      <c r="H87">
+        <f t="shared" si="3"/>
+        <v>-252.36975971563</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B88" s="1">
+        <v>2048</v>
+      </c>
+      <c r="C88" s="1">
+        <v>0</v>
+      </c>
+      <c r="D88" s="1">
+        <v>0</v>
+      </c>
+      <c r="E88" s="1"/>
+      <c r="F88" s="1"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1">
+        <v>2305.324463</v>
+      </c>
+      <c r="B89" s="1">
+        <v>2299.202881</v>
+      </c>
+      <c r="C89" s="1">
+        <v>31</v>
+      </c>
+      <c r="D89" s="1">
+        <v>31</v>
+      </c>
+      <c r="E89" s="1">
+        <f t="shared" ref="E89:E93" si="4">(C89-C90)/(A89-A90)</f>
+        <v>0.120470473885726</v>
+      </c>
+      <c r="F89" s="1">
+        <f t="shared" ref="F89:F93" si="5">C89-A89*E89</f>
+        <v>-246.723530517967</v>
+      </c>
+      <c r="G89">
+        <f t="shared" ref="G89:G93" si="6">(D89-D90)/(B89-B90)</f>
+        <v>0.123406227972361</v>
+      </c>
+      <c r="H89">
+        <f t="shared" ref="H89:H93" si="7">D89-G89*B89</f>
+        <v>-252.735954887396</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B90" s="1">
+        <v>2048</v>
+      </c>
+      <c r="C90" s="1">
+        <v>0</v>
+      </c>
+      <c r="D90" s="1">
+        <v>0</v>
+      </c>
+      <c r="E90" s="1"/>
+      <c r="F90" s="1"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1">
+        <v>2309.09082</v>
+      </c>
+      <c r="B91" s="1">
+        <v>2297.573975</v>
+      </c>
+      <c r="C91" s="1">
+        <v>31</v>
+      </c>
+      <c r="D91" s="1">
+        <v>31</v>
+      </c>
+      <c r="E91" s="1">
+        <f t="shared" si="4"/>
+        <v>0.118732631043864</v>
+      </c>
+      <c r="F91" s="1">
+        <f t="shared" si="5"/>
+        <v>-243.164428377834</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="6"/>
+        <v>0.124211669105322</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="7"/>
+        <v>-254.3854983277</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B92" s="2">
+        <v>2048</v>
+      </c>
+      <c r="C92" s="1">
+        <v>0</v>
+      </c>
+      <c r="D92" s="1">
+        <v>0</v>
+      </c>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1">
+        <v>2300.991455</v>
+      </c>
+      <c r="B93" s="1">
+        <v>2279.759521</v>
+      </c>
+      <c r="C93" s="1">
+        <v>31</v>
+      </c>
+      <c r="D93" s="1">
+        <v>31</v>
+      </c>
+      <c r="E93" s="1">
+        <f t="shared" si="4"/>
+        <v>0.122533782810965</v>
+      </c>
+      <c r="F93" s="1">
+        <f t="shared" si="5"/>
+        <v>-250.949187196856</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="6"/>
+        <v>0.133759337550581</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="7"/>
+        <v>-273.93912330359</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B94" s="1">
+        <v>2048</v>
+      </c>
+      <c r="C94" s="1">
+        <v>0</v>
+      </c>
+      <c r="D94" s="1">
+        <v>0</v>
+      </c>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1">
+        <v>2285.67749</v>
+      </c>
+      <c r="B95" s="5">
+        <v>2252.394531</v>
+      </c>
+      <c r="C95" s="1">
+        <v>31</v>
+      </c>
+      <c r="D95" s="1">
+        <v>31</v>
+      </c>
+      <c r="E95" s="1">
+        <f>(C95-C96)/(A95-A96)</f>
+        <v>0.130428842882849</v>
+      </c>
+      <c r="F95" s="1">
+        <f>C95-A95*E95</f>
+        <v>-267.118270224075</v>
+      </c>
+      <c r="G95">
+        <f>(D95-D96)/(B95-B96)</f>
+        <v>0.151667463157319</v>
+      </c>
+      <c r="H95">
+        <f>D95-G95*B95</f>
+        <v>-310.614964546189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B96" s="2">
+        <v>2048</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -52724,17 +56822,19 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M148"/>
+  <dimension ref="A1:M166"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="D133" workbookViewId="0">
-      <selection activeCell="D136" sqref="D136:D145"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A139" workbookViewId="0">
+      <selection activeCell="F142" sqref="F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="15.7037037037037" customWidth="1"/>
     <col min="2" max="2" width="15.9259259259259" customWidth="1"/>
-    <col min="5" max="5" width="12.8888888888889"/>
+    <col min="5" max="5" width="15.1666666666667" customWidth="1"/>
+    <col min="6" max="6" width="17.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="12.8888888888889"/>
     <col min="8" max="8" width="12.7037037037037" customWidth="1"/>
     <col min="9" max="9" width="13.8148148148148" customWidth="1"/>
     <col min="10" max="10" width="11.7407407407407" customWidth="1"/>
@@ -52754,10 +56854,10 @@
         <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>25</v>
@@ -52772,10 +56872,10 @@
         <v>28</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -53292,10 +57392,10 @@
         <v>32</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -53660,10 +57760,10 @@
         <v>35</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -54028,10 +58128,10 @@
         <v>38</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -54396,10 +58496,10 @@
         <v>41</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -54764,10 +58864,10 @@
         <v>44</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -55132,10 +59232,10 @@
         <v>47</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F116" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -55478,7 +59578,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:5">
       <c r="A136" s="1" t="s">
         <v>25</v>
       </c>
@@ -55491,8 +59591,11 @@
       <c r="D136" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="E136" s="4" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:5">
       <c r="A137" s="1">
         <v>3972.364746</v>
       </c>
@@ -55505,136 +59608,603 @@
       <c r="D137" s="2">
         <v>41.6</v>
       </c>
+      <c r="E137" s="4">
+        <f>CORREL(A137:A145,C137:C145)</f>
+        <v>0.995641274323935</v>
+      </c>
     </row>
-    <row r="138" spans="1:4">
-      <c r="A138" s="4">
+    <row r="138" spans="1:5">
+      <c r="A138" s="1">
         <v>3583.52832</v>
       </c>
-      <c r="B138" s="4">
+      <c r="B138" s="1">
         <v>3591.397461</v>
       </c>
-      <c r="C138" s="4">
+      <c r="C138" s="1">
         <v>30.65</v>
       </c>
-      <c r="D138" s="4">
+      <c r="D138" s="1">
         <v>31.27</v>
       </c>
+      <c r="E138" s="4"/>
     </row>
-    <row r="139" spans="1:4">
-      <c r="A139" s="4">
+    <row r="139" spans="1:5">
+      <c r="A139" s="1">
         <v>3244.79248</v>
       </c>
-      <c r="B139" s="4">
+      <c r="B139" s="1">
         <v>3249.048828</v>
       </c>
-      <c r="C139" s="4">
+      <c r="C139" s="1">
         <v>20.22</v>
       </c>
-      <c r="D139" s="4">
+      <c r="D139" s="1">
         <v>20.73</v>
       </c>
+      <c r="E139" s="4"/>
     </row>
-    <row r="140" spans="1:4">
-      <c r="A140" s="4">
+    <row r="140" spans="1:5">
+      <c r="A140" s="1">
         <v>2675.730713</v>
       </c>
-      <c r="B140" s="4">
+      <c r="B140" s="1">
         <v>2681.392334</v>
       </c>
-      <c r="C140" s="4">
+      <c r="C140" s="1">
         <v>10.12</v>
       </c>
-      <c r="D140" s="4">
+      <c r="D140" s="1">
         <v>10.33</v>
       </c>
+      <c r="E140" s="4"/>
     </row>
-    <row r="141" spans="1:4">
-      <c r="A141" s="4">
+    <row r="141" spans="1:5">
+      <c r="A141" s="1">
         <v>2123.064453</v>
       </c>
-      <c r="B141" s="4">
+      <c r="B141" s="1">
         <v>2136.213623</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" s="1">
         <v>0</v>
       </c>
-      <c r="D141" s="4">
+      <c r="D141" s="1">
         <v>0</v>
       </c>
+      <c r="E141" s="4"/>
     </row>
-    <row r="142" spans="1:4">
-      <c r="A142" s="4">
+    <row r="142" spans="1:5">
+      <c r="A142" s="1">
         <v>1334.792969</v>
       </c>
-      <c r="B142" s="4">
+      <c r="B142" s="1">
         <v>1285.009521</v>
       </c>
-      <c r="C142" s="4">
+      <c r="C142" s="1">
         <v>-10.29</v>
       </c>
-      <c r="D142" s="4">
+      <c r="D142" s="1">
         <v>-10.09</v>
       </c>
+      <c r="E142" s="4"/>
     </row>
-    <row r="143" spans="1:4">
-      <c r="A143" s="4">
+    <row r="143" spans="1:5">
+      <c r="A143" s="1">
         <v>910.33606</v>
       </c>
-      <c r="B143" s="4">
+      <c r="B143" s="1">
         <v>876.092285</v>
       </c>
-      <c r="C143" s="4">
+      <c r="C143" s="1">
         <v>-20.66</v>
       </c>
-      <c r="D143" s="4">
+      <c r="D143" s="1">
         <v>-20.29</v>
       </c>
+      <c r="E143" s="4"/>
     </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="4">
+    <row r="144" spans="1:5">
+      <c r="A144" s="1">
         <v>486.322876</v>
       </c>
-      <c r="B144" s="4">
+      <c r="B144" s="1">
         <v>447.694824</v>
       </c>
-      <c r="C144" s="4">
+      <c r="C144" s="1">
         <v>-30.07</v>
       </c>
-      <c r="D144" s="4">
+      <c r="D144" s="1">
         <v>-29.04</v>
       </c>
+      <c r="E144" s="4"/>
     </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="4">
+    <row r="145" spans="1:5">
+      <c r="A145" s="1">
         <v>96.818909</v>
       </c>
-      <c r="B145" s="4">
+      <c r="B145" s="1">
         <v>25.781395</v>
       </c>
-      <c r="C145" s="4">
+      <c r="C145" s="1">
         <v>-41.3</v>
       </c>
-      <c r="D145" s="4">
+      <c r="D145" s="1">
         <v>-40.8</v>
       </c>
+      <c r="E145" s="4"/>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="4"/>
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
-      <c r="D146" s="4"/>
+      <c r="A146" s="1"/>
+      <c r="B146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="4"/>
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
-      <c r="D147" s="4"/>
+      <c r="A147" s="1"/>
+      <c r="B147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="4"/>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
+      <c r="A148" s="1"/>
+      <c r="B148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C152" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F152" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G152" t="s">
+        <v>50</v>
+      </c>
+      <c r="H152" t="s">
+        <v>51</v>
+      </c>
+      <c r="I152" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J152" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" s="1">
+        <v>2856.866699</v>
+      </c>
+      <c r="B153" s="1">
+        <v>3042.010986</v>
+      </c>
+      <c r="C153" s="1">
+        <v>41</v>
+      </c>
+      <c r="D153" s="1">
+        <v>41</v>
+      </c>
+      <c r="E153" s="1">
+        <f>(C153-C154)/(A153-A154)</f>
+        <v>0.0551700604397028</v>
+      </c>
+      <c r="F153" s="1">
+        <f>C153-A153*E153</f>
+        <v>-116.613508452004</v>
+      </c>
+      <c r="G153">
+        <f>(D153-D154)/(B153-B154)</f>
+        <v>0.0442525163162644</v>
+      </c>
+      <c r="H153">
+        <f>D153-G153*B153</f>
+        <v>-93.6166407922204</v>
+      </c>
+      <c r="I153" s="4">
+        <f>CORREL(A153:A166,B153:B166)</f>
+        <v>0.987601678302785</v>
+      </c>
+      <c r="J153" s="6">
+        <f>ABS(A153-B153)/((A153+B153)/2)</f>
+        <v>0.0627727160611569</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" s="1">
+        <v>2113.71</v>
+      </c>
+      <c r="B154" s="1">
+        <v>2115.51</v>
+      </c>
+      <c r="C154" s="1">
+        <v>0</v>
+      </c>
+      <c r="D154" s="1">
+        <v>0</v>
+      </c>
+      <c r="E154" s="1"/>
+      <c r="F154" s="1"/>
+      <c r="I154" s="4">
+        <f t="shared" ref="I154:I165" si="0">CORREL(A154:A167,B154:B167)</f>
+        <v>0.993109826585237</v>
+      </c>
+      <c r="J154" s="6">
+        <f t="shared" ref="J154:J164" si="1">ABS(A154-B154)/((A154+B154)/2)</f>
+        <v>0.000851220792486644</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" s="1">
+        <v>3057.437744</v>
+      </c>
+      <c r="B155" s="1">
+        <v>3128.932617</v>
+      </c>
+      <c r="C155" s="1">
+        <v>41</v>
+      </c>
+      <c r="D155" s="1">
+        <v>41</v>
+      </c>
+      <c r="E155" s="1">
+        <f t="shared" ref="E154:E166" si="2">(C155-C156)/(A155-A156)</f>
+        <v>0.0428727797400359</v>
+      </c>
+      <c r="F155" s="1">
+        <f t="shared" ref="F154:F166" si="3">C155-A155*E155</f>
+        <v>-90.0808549673842</v>
+      </c>
+      <c r="G155">
+        <f t="shared" ref="G154:G166" si="4">(D155-D156)/(B155-B156)</f>
+        <v>0.0398913159346036</v>
+      </c>
+      <c r="H155">
+        <f t="shared" ref="H154:H166" si="5">D155-G155*B155</f>
+        <v>-83.8172395628329</v>
+      </c>
+      <c r="I155" s="4">
+        <f t="shared" si="0"/>
+        <v>0.992735601669512</v>
+      </c>
+      <c r="J155" s="6">
+        <f t="shared" si="1"/>
+        <v>0.0231136737143048</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" s="1">
+        <v>2101.12</v>
+      </c>
+      <c r="B156" s="1">
+        <v>2101.14</v>
+      </c>
+      <c r="C156" s="1">
+        <v>0</v>
+      </c>
+      <c r="D156" s="1">
+        <v>0</v>
+      </c>
+      <c r="E156" s="1"/>
+      <c r="F156" s="1"/>
+      <c r="I156" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99408473469855</v>
+      </c>
+      <c r="J156" s="6">
+        <f t="shared" si="1"/>
+        <v>9.51868756335011e-6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" s="1">
+        <v>3105.553955</v>
+      </c>
+      <c r="B157" s="1">
+        <v>3136.202393</v>
+      </c>
+      <c r="C157" s="1">
+        <v>41</v>
+      </c>
+      <c r="D157" s="1">
+        <v>41</v>
+      </c>
+      <c r="E157" s="1">
+        <f t="shared" si="2"/>
+        <v>0.0401581268361232</v>
+      </c>
+      <c r="F157" s="1">
+        <f t="shared" si="3"/>
+        <v>-83.7132296213141</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="4"/>
+        <v>0.0384603697497586</v>
+      </c>
+      <c r="H157">
+        <f t="shared" si="5"/>
+        <v>-79.6195036448578</v>
+      </c>
+      <c r="I157" s="4">
+        <f t="shared" si="0"/>
+        <v>0.993710783770607</v>
+      </c>
+      <c r="J157" s="6">
+        <f t="shared" si="1"/>
+        <v>0.00982045318376473</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" s="1">
+        <v>2084.59</v>
+      </c>
+      <c r="B158" s="1">
+        <v>2070.17</v>
+      </c>
+      <c r="C158" s="1">
+        <v>0</v>
+      </c>
+      <c r="D158" s="1">
+        <v>0</v>
+      </c>
+      <c r="E158" s="1"/>
+      <c r="F158" s="1"/>
+      <c r="I158" s="4">
+        <f t="shared" si="0"/>
+        <v>0.994568506536502</v>
+      </c>
+      <c r="J158" s="6">
+        <f t="shared" si="1"/>
+        <v>0.00694143584707664</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" s="1">
+        <v>3122</v>
+      </c>
+      <c r="B159" s="1">
+        <v>3117.885986</v>
+      </c>
+      <c r="C159" s="1">
+        <v>41</v>
+      </c>
+      <c r="D159" s="1">
+        <v>41</v>
+      </c>
+      <c r="E159" s="1">
+        <f t="shared" si="2"/>
+        <v>0.0399431054303139</v>
+      </c>
+      <c r="F159" s="1">
+        <f t="shared" si="3"/>
+        <v>-83.70237515344</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="4"/>
+        <v>0.0395727690649233</v>
+      </c>
+      <c r="H159">
+        <f t="shared" si="5"/>
+        <v>-82.3833820947386</v>
+      </c>
+      <c r="I159" s="4">
+        <f t="shared" si="0"/>
+        <v>0.994021383618395</v>
+      </c>
+      <c r="J159" s="6">
+        <f t="shared" si="1"/>
+        <v>0.0013186183238702</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
+      <c r="A160" s="1">
+        <v>2095.54</v>
+      </c>
+      <c r="B160" s="1">
+        <v>2081.82</v>
+      </c>
+      <c r="C160" s="1">
+        <v>0</v>
+      </c>
+      <c r="D160" s="1">
+        <v>0</v>
+      </c>
+      <c r="E160" s="1"/>
+      <c r="F160" s="1"/>
+      <c r="I160" s="4">
+        <f t="shared" si="0"/>
+        <v>0.99467482611899</v>
+      </c>
+      <c r="J160" s="6">
+        <f t="shared" si="1"/>
+        <v>0.00656874198058094</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
+      <c r="A161" s="1">
+        <v>3085.771729</v>
+      </c>
+      <c r="B161" s="1">
+        <v>3036.754883</v>
+      </c>
+      <c r="C161" s="1">
+        <v>41</v>
+      </c>
+      <c r="D161" s="1">
+        <v>41</v>
+      </c>
+      <c r="E161" s="1">
+        <f t="shared" si="2"/>
+        <v>0.0422623018858092</v>
+      </c>
+      <c r="F161" s="1">
+        <f t="shared" si="3"/>
+        <v>-89.4118163616933</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="4"/>
+        <v>0.045151953133136</v>
+      </c>
+      <c r="H161">
+        <f t="shared" si="5"/>
+        <v>-96.115414154038</v>
+      </c>
+      <c r="I161" s="4">
+        <f t="shared" si="0"/>
+        <v>0.994053683839156</v>
+      </c>
+      <c r="J161" s="6">
+        <f t="shared" si="1"/>
+        <v>0.0160119666622365</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
+      <c r="A162" s="1">
+        <v>2115.64</v>
+      </c>
+      <c r="B162" s="2">
+        <v>2128.71</v>
+      </c>
+      <c r="C162" s="1">
+        <v>0</v>
+      </c>
+      <c r="D162" s="1">
+        <v>0</v>
+      </c>
+      <c r="E162" s="1"/>
+      <c r="F162" s="1"/>
+      <c r="I162" s="4">
+        <f t="shared" si="0"/>
+        <v>0.993778469776334</v>
+      </c>
+      <c r="J162" s="6">
+        <f t="shared" si="1"/>
+        <v>0.006158775784278</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
+      <c r="A163" s="1">
+        <v>3075.678467</v>
+      </c>
+      <c r="B163" s="1">
+        <v>3016.451904</v>
+      </c>
+      <c r="C163" s="1">
+        <v>41</v>
+      </c>
+      <c r="D163" s="1">
+        <v>41</v>
+      </c>
+      <c r="E163" s="1">
+        <f t="shared" si="2"/>
+        <v>0.0396849031466757</v>
+      </c>
+      <c r="F163" s="1">
+        <f t="shared" si="3"/>
+        <v>-81.058002073211</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="4"/>
+        <v>0.0409962322822683</v>
+      </c>
+      <c r="H163">
+        <f t="shared" si="5"/>
+        <v>-82.6631629246746</v>
+      </c>
+      <c r="I163" s="4">
+        <f t="shared" si="0"/>
+        <v>0.994185858288455</v>
+      </c>
+      <c r="J163" s="6">
+        <f t="shared" si="1"/>
+        <v>0.0194436295329242</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
+      <c r="A164" s="1">
+        <v>2042.54</v>
+      </c>
+      <c r="B164" s="1">
+        <v>2016.36</v>
+      </c>
+      <c r="C164" s="1">
+        <v>0</v>
+      </c>
+      <c r="D164" s="1">
+        <v>0</v>
+      </c>
+      <c r="E164" s="1"/>
+      <c r="F164" s="1"/>
+      <c r="I164" s="4">
+        <f t="shared" si="0"/>
+        <v>0.999999638029118</v>
+      </c>
+      <c r="J164" s="6">
+        <f t="shared" si="1"/>
+        <v>0.0129000468107123</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
+      <c r="A165" s="1">
+        <v>2968.943604</v>
+      </c>
+      <c r="B165" s="5">
+        <v>2782.15918</v>
+      </c>
+      <c r="C165" s="1">
+        <v>41</v>
+      </c>
+      <c r="D165" s="1">
+        <v>41</v>
+      </c>
+      <c r="E165" s="1">
+        <f t="shared" si="2"/>
+        <v>0.0436071120706737</v>
+      </c>
+      <c r="F165" s="1">
+        <f t="shared" si="3"/>
+        <v>-88.4670564711378</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="4"/>
+        <v>0.0527006391096482</v>
+      </c>
+      <c r="H165">
+        <f t="shared" si="5"/>
+        <v>-105.621566890775</v>
+      </c>
+      <c r="I165" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J165" s="4"/>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1">
+        <v>2028.73</v>
+      </c>
+      <c r="B166" s="2">
+        <v>2004.18</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166" s="1"/>
+      <c r="F166" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
